--- a/biology/Botanique/Pimenta/Pimenta.xlsx
+++ b/biology/Botanique/Pimenta/Pimenta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pimenta est un genre d'angiospermes comprenant environ 40 espèces de plantes de la famille des Myrtaceae. Ces plantes sont originaires des zones humides de l'Amérique centrale. 
 Ce sont généralement des arbres vivaces qui peuvent atteindre 30 mètres de haut quoique la plupart du temps ils ne mesurent que 6 à 15 mètres. Le tronc fait une cinquantaine de centimètres de diamètre, bien droit avec des branches ascendantes et un houppier ovoïde. Les feuilles sont simples, ovales, brillantes, vertes, plus claires sous le dessous et dégagent une odeur de piment lorsqu'on les malaxe. Les fleurs  sont groupées en panicules axillaires de 6 à 12 centimètres de diamètre. Les fleurs sont hermaphrodites, de 6 mm de diamètre avec un calice vert et des pétales blancs. Le fruit est une baie noire de 10 × 5 mm² avec 1 à 2 graines.
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pimenta acris
 Pimenta acuminata
